--- a/Opdracht6_AnthonyPornel.xlsx
+++ b/Opdracht6_AnthonyPornel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\School ICT\Sales&amp;Interaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\SCI-AnthonyPornel-2223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68082D49-CEAF-4301-8E93-4747F4931578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3875177B-8B3A-4599-96C4-084E2732B85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,54 +290,49 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -346,7 +341,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -375,20 +370,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -406,16 +387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -430,8 +411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477126" y="457200"/>
-          <a:ext cx="4010024" cy="1600200"/>
+          <a:off x="7562850" y="352425"/>
+          <a:ext cx="3790949" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -489,11 +470,90 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Een groothandel bedrijf wil 2000 euro investeren in software met een discount rate van 20% we verwachten in 4 jaar tijd dat we 800 euro winst krijgen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nl-BE"/>
-            <a:t> </a:t>
+            <a:t>Een vastgoed bedrijf wil 100 000 euro investeren in vastgoed met een discount rate van 20%.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> In 4 jaar willen wij weten wat ons NPV, IRR en FV is.</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In deze case kan u zien dat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> onze Net present value 3549 is en dus hoger dan 0 dit betekent dat de investering gunstig is en ons een rendement kan opleveren als ons NPV lager was dan 0 kan het zijn dat in loop van het project we geld gaan verliezen. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Onze IRR is 22% is dus hoger dan onze Discount rate dit betekent ook iets goed dit zal waarde opleveren voor het bedrijf </a:t>
           </a:r>
           <a:endParaRPr lang="nl-BE" sz="1100"/>
         </a:p>
@@ -503,16 +563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -527,8 +587,155 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486651" y="2276475"/>
-          <a:ext cx="3990974" cy="1200150"/>
+          <a:off x="7562849" y="3019425"/>
+          <a:ext cx="3800475" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Legenda</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> voor berekening</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-BE">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Output</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> van berekening </a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-BE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949A1AD8-AD39-41D6-9961-5BF1E77CE626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="1952625"/>
+          <a:ext cx="3200399" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -563,150 +770,6 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="nl-BE" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Legenda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nl-BE" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Input</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nl-BE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> voor berekening</a:t>
-          </a:r>
-          <a:endParaRPr lang="nl-BE">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-BE" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Output</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nl-BE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> van berekening </a:t>
-          </a:r>
-          <a:endParaRPr lang="nl-BE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949A1AD8-AD39-41D6-9961-5BF1E77CE626}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038601" y="1952625"/>
-          <a:ext cx="2933700" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
             <a:rPr lang="nl-BE" sz="1100"/>
             <a:t>Als</a:t>
           </a:r>
@@ -728,7 +791,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>weergeven kunnen we ervan uitgaan dat dit een financieel goed project is </a:t>
+            <a:t>weergeven kunnen we ervan uitgaan dat dit een financieel goed project is, bij </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NOT OK </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>geen goed project.</a:t>
           </a:r>
           <a:endParaRPr lang="nl-BE" sz="1100">
             <a:solidFill>
@@ -741,10 +820,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,177 +1120,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE510B-7364-419C-9B3D-650E2CC69B43}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:L28"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="P17" sqref="P16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="J3" s="15"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24">
-        <v>-2000</v>
-      </c>
-      <c r="D5" s="24">
-        <v>800</v>
-      </c>
-      <c r="E5" s="24">
-        <v>800</v>
-      </c>
-      <c r="F5" s="24">
-        <v>800</v>
-      </c>
-      <c r="G5" s="25">
-        <v>800</v>
-      </c>
-      <c r="J5" s="23"/>
+      <c r="C5" s="18">
+        <v>-100000</v>
+      </c>
+      <c r="D5" s="18">
+        <v>40000</v>
+      </c>
+      <c r="E5" s="18">
+        <v>40000</v>
+      </c>
+      <c r="F5" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G5" s="18">
+        <v>40000</v>
+      </c>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="19">
         <v>0.2</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="7"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="24">
         <f>C5+NPV(C6,D5:G5)</f>
-        <v>70.987654320987986</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="J7" s="11"/>
+        <v>3549.3827160493965</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="25">
         <f>IRR(C5:G5)</f>
-        <v>0.21862269609829066</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+        <v>0.21862269609829088</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="31"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="15" t="str">
         <f>IF(C7&gt;0,"OK","NOT OK")</f>
         <v>OK</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="15" t="str">
         <f>IF(C8&gt;C6,"OK","NOT OK")</f>
         <v>OK</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
@@ -1225,14 +1277,14 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -1250,107 +1302,97 @@
       <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="24">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C17" s="18">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="13">
         <f>C17*(1+$C18)</f>
-        <v>2400</v>
-      </c>
-      <c r="E17" s="18">
+        <v>120000</v>
+      </c>
+      <c r="E17" s="13">
         <f t="shared" ref="E17:G17" si="0">D17*(1+$C18)</f>
-        <v>2880</v>
-      </c>
-      <c r="F17" s="18">
+        <v>144000</v>
+      </c>
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>3456</v>
-      </c>
-      <c r="G17" s="19">
+        <v>172800</v>
+      </c>
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>4147.2</v>
+        <v>207360</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="19">
         <v>0.2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="23">
         <f>-FV(C18,4,,C17)</f>
-        <v>4147.2</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+        <v>207360</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
       <c r="L19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="27">
-        <v>2000</v>
+      <c r="C22" s="20">
+        <v>100000</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="21">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="26">
         <f>-FV(C23,C24,,C22)</f>
-        <v>4147.2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J28" s="22"/>
+        <v>207360</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Opdracht6_AnthonyPornel.xlsx
+++ b/Opdracht6_AnthonyPornel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\SCI-AnthonyPornel-2223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3875177B-8B3A-4599-96C4-084E2732B85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89AA6D-7EEE-434D-90C4-245B0D1FA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Discount rate</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Cashflow</t>
-  </si>
-  <si>
-    <t>Nominal amount</t>
   </si>
   <si>
     <t>Years</t>
@@ -1123,7 +1120,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P16:P17"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1134,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1147,12 +1144,10 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="27" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="28"/>
@@ -1160,28 +1155,28 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C5" s="18">
         <v>-100000</v>
@@ -1241,14 +1236,14 @@
     </row>
     <row r="11" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="31"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="15" t="str">
         <f>IF(C7&gt;0,"OK","NOT OK")</f>
@@ -1258,7 +1253,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="15" t="str">
         <f>IF(C8&gt;C6,"OK","NOT OK")</f>
@@ -1278,7 +1273,7 @@
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -1288,27 +1283,27 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="18">
         <v>100000</v>
@@ -1332,7 +1327,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="19">
         <v>0.2</v>
@@ -1352,18 +1347,18 @@
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="20">
         <v>100000</v>
@@ -1371,7 +1366,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="21">
         <v>0.2</v>
@@ -1379,7 +1374,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="22">
         <v>4</v>
@@ -1387,7 +1382,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="26">
         <f>-FV(C23,C24,,C22)</f>
@@ -1396,11 +1391,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C12">

--- a/Opdracht6_AnthonyPornel.xlsx
+++ b/Opdracht6_AnthonyPornel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\SCI-AnthonyPornel-2223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89AA6D-7EEE-434D-90C4-245B0D1FA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD088BF-FCFE-4508-ACEC-6DB868095C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
+    <workbookView xWindow="-28920" yWindow="5130" windowWidth="29040" windowHeight="15840" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,12 +317,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -331,6 +325,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1120,7 +1120,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,24 +1133,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1235,10 +1235,10 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="29"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1272,14 +1272,14 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -1351,10 +1351,10 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">

--- a/Opdracht6_AnthonyPornel.xlsx
+++ b/Opdracht6_AnthonyPornel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\SCI-AnthonyPornel-2223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD088BF-FCFE-4508-ACEC-6DB868095C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE85213B-6546-4506-B785-59820796B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5130" windowWidth="29040" windowHeight="15840" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
+    <workbookView xWindow="6045" yWindow="750" windowWidth="28800" windowHeight="15435" xr2:uid="{552BE213-31F9-437C-919C-C6E6A9E53060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1120,14 +1120,16 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
